--- a/static/app_documents/doc_templates/blank_testing_report.xlsx
+++ b/static/app_documents/doc_templates/blank_testing_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livebournemouthac-my.sharepoint.com/personal/s4820791_bournemouth_ac_uk/Documents/System Analysis and Design/flaskExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livebournemouthac-my.sharepoint.com/personal/s5507030_bournemouth_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{241E0983-7C45-488C-AD82-C8A99D20788F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{670E429A-0494-4DE4-A891-29F03CCE2739}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A515B8BC-5C36-4C4A-B572-56F899A490F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A0AAE568-50E5-483F-8F5B-4F649EA33ABB}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{A0AAE568-50E5-483F-8F5B-4F649EA33ABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,9 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>TESTING RECORDS - REPORT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>TESTING RECORDS - MONTHLY REPORT</t>
+  </si>
+  <si>
+    <t>DATE:</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>APPLICATION NAME</t>
   </si>
   <si>
     <t>TEST DATE</t>
@@ -61,16 +72,13 @@
   </si>
   <si>
     <t>EVIDENCE</t>
-  </si>
-  <si>
-    <t>Application Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,11 +136,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,11 +183,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -161,10 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,13 +531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42955920-A808-47A6-B343-2E4B9723067B}">
-  <dimension ref="D3:L25"/>
+  <dimension ref="C3:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" customWidth="1"/>
@@ -481,282 +548,310 @@
     <col min="11" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="3:12" ht="15" customHeight="1">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="3:12" ht="15" customHeight="1">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="K5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:L4"/>
+  <mergeCells count="2">
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="K3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,15 +868,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BD3C1FE13F19547AD0188400224973C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13dbec3a33fb6ceea6ed5baf2ffe6e05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c061f4d-e41b-4d2d-8578-b1148e13e8f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325ce819393f771f33f963d05fc2c36" ns2:_="">
     <xsd:import namespace="3c061f4d-e41b-4d2d-8578-b1148e13e8f7"/>
@@ -941,38 +1027,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA5FA6BE-5766-4B9A-A5C3-CAA27E1C7D33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3c061f4d-e41b-4d2d-8578-b1148e13e8f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA5FA6BE-5766-4B9A-A5C3-CAA27E1C7D33}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0DDD7D-FEEF-4841-ABDD-3A81575E4A89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{867E30EB-D05F-4E74-94DB-9827A9525EA1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{867E30EB-D05F-4E74-94DB-9827A9525EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3c061f4d-e41b-4d2d-8578-b1148e13e8f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0DDD7D-FEEF-4841-ABDD-3A81575E4A89}"/>
 </file>